--- a/pred_ohlcv/54_21/2020-01-22 ETH ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-22 ETH ohlcv.xlsx
@@ -7282,7 +7282,7 @@
         <v>402.2229603076125</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>402.2229603076125</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>402.2229603076125</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>665.1845603076125</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>692.4955603076125</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>692.4955603076125</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>692.4955603076125</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>735.7689603076126</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>752.8120603076126</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>561.1315857100738</v>
       </c>
       <c r="H284">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>395.6860274159869</v>
       </c>
       <c r="H291">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>439.3187274159869</v>
       </c>
       <c r="H292">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>438.270627415987</v>
       </c>
       <c r="H293">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>438.5936274159869</v>
       </c>
       <c r="H294">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>449.9786274159869</v>
       </c>
       <c r="H295">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>364.4226120638443</v>
       </c>
       <c r="H303">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>131.9562789490338</v>
       </c>
       <c r="H422">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>131.9562789490338</v>
       </c>
       <c r="H423">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>135.6533789490338</v>
       </c>
       <c r="H424">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>135.2089789490338</v>
       </c>
       <c r="H427">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>363.5046270959605</v>
       </c>
       <c r="H456">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>363.5046270959605</v>
       </c>
       <c r="H457">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>363.5046270959605</v>
       </c>
       <c r="H458">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>363.5046270959605</v>
       </c>
       <c r="H459">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>406.3888270959605</v>
       </c>
       <c r="H460">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>406.3888270959605</v>
       </c>
       <c r="H461">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>406.3888270959605</v>
       </c>
       <c r="H462">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>415.7855270959605</v>
       </c>
       <c r="H463">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>415.7855270959605</v>
       </c>
       <c r="H464">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>415.0524270959605</v>
       </c>
       <c r="H465">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>65.42222709596052</v>
       </c>
       <c r="H466">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>67.43342709596052</v>
       </c>
       <c r="H467">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>56.43592709596052</v>
       </c>
       <c r="H468">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>44.68232709596052</v>
       </c>
       <c r="H469">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>44.68232709596052</v>
       </c>
       <c r="H470">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>44.68232709596052</v>
       </c>
       <c r="H471">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -14224,7 +14224,7 @@
         <v>-46827.77253150597</v>
       </c>
       <c r="H532">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -14250,7 +14250,7 @@
         <v>-46827.77253150597</v>
       </c>
       <c r="H533">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -14328,7 +14328,7 @@
         <v>-46840.93223150597</v>
       </c>
       <c r="H536">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -14354,7 +14354,7 @@
         <v>-46819.50793150597</v>
       </c>
       <c r="H537">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -14380,7 +14380,7 @@
         <v>-46819.50793150597</v>
       </c>
       <c r="H538">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -14406,7 +14406,7 @@
         <v>-46804.17943150597</v>
       </c>
       <c r="H539">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -14432,7 +14432,7 @@
         <v>-46804.17943150597</v>
       </c>
       <c r="H540">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -14458,7 +14458,7 @@
         <v>-46807.86700393783</v>
       </c>
       <c r="H541">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -14484,7 +14484,7 @@
         <v>-46807.52120393783</v>
       </c>
       <c r="H542">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -14510,7 +14510,7 @@
         <v>-46809.33760393783</v>
       </c>
       <c r="H543">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -16616,7 +16616,7 @@
         <v>-46530.94340135124</v>
       </c>
       <c r="H624">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="625" spans="1:8">
@@ -17110,7 +17110,7 @@
         <v>-46444.9985278183</v>
       </c>
       <c r="H643">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="644" spans="1:8">
@@ -17136,7 +17136,7 @@
         <v>-46501.3808278183</v>
       </c>
       <c r="H644">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="645" spans="1:8">
@@ -17162,7 +17162,7 @@
         <v>-46426.1454278183</v>
       </c>
       <c r="H645">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="646" spans="1:8">
@@ -17188,7 +17188,7 @@
         <v>-46456.1845278183</v>
       </c>
       <c r="H646">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="647" spans="1:8">
@@ -17214,7 +17214,7 @@
         <v>-46353.6869278183</v>
       </c>
       <c r="H647">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="648" spans="1:8">
@@ -17240,7 +17240,7 @@
         <v>-46372.6889278183</v>
       </c>
       <c r="H648">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="649" spans="1:8">
@@ -17266,7 +17266,7 @@
         <v>-46371.2372278183</v>
       </c>
       <c r="H649">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="650" spans="1:8">
@@ -17318,7 +17318,7 @@
         <v>-46379.2245278183</v>
       </c>
       <c r="H651">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="652" spans="1:8">
@@ -17474,7 +17474,7 @@
         <v>-46383.8198278183</v>
       </c>
       <c r="H657">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="658" spans="1:8">
@@ -17526,7 +17526,7 @@
         <v>-46311.9805278183</v>
       </c>
       <c r="H659">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="660" spans="1:8">
@@ -17552,7 +17552,7 @@
         <v>-46320.70452676844</v>
       </c>
       <c r="H660">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="661" spans="1:8">
@@ -17578,7 +17578,7 @@
         <v>-46315.51452676843</v>
       </c>
       <c r="H661">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="662" spans="1:8">
@@ -17708,7 +17708,7 @@
         <v>-46314.70672676844</v>
       </c>
       <c r="H666">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="667" spans="1:8">
@@ -17734,7 +17734,7 @@
         <v>-46305.20576727211</v>
       </c>
       <c r="H667">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="668" spans="1:8">
@@ -17760,7 +17760,7 @@
         <v>-46293.91920932769</v>
       </c>
       <c r="H668">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="669" spans="1:8">
@@ -19450,7 +19450,7 @@
         <v>-46201.21959598768</v>
       </c>
       <c r="H733">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="734" spans="1:8">
@@ -19476,7 +19476,7 @@
         <v>-46225.03569598768</v>
       </c>
       <c r="H734">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="735" spans="1:8">
@@ -19502,7 +19502,7 @@
         <v>-46143.46079598768</v>
       </c>
       <c r="H735">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="736" spans="1:8">
@@ -19528,7 +19528,7 @@
         <v>-46202.27019598768</v>
       </c>
       <c r="H736">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="737" spans="1:8">
@@ -19580,7 +19580,7 @@
         <v>-46202.27019598768</v>
       </c>
       <c r="H738">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="739" spans="1:8">
@@ -19606,7 +19606,7 @@
         <v>-46181.48449598768</v>
       </c>
       <c r="H739">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="740" spans="1:8">
@@ -19632,7 +19632,7 @@
         <v>-46222.29859598768</v>
       </c>
       <c r="H740">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="741" spans="1:8">
@@ -19658,7 +19658,7 @@
         <v>-46222.29859598768</v>
       </c>
       <c r="H741">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="742" spans="1:8">
@@ -19684,7 +19684,7 @@
         <v>-46223.61219598768</v>
       </c>
       <c r="H742">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="743" spans="1:8">
@@ -19710,7 +19710,7 @@
         <v>-46220.52479598769</v>
       </c>
       <c r="H743">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="744" spans="1:8">
@@ -19736,7 +19736,7 @@
         <v>-46302.45409598769</v>
       </c>
       <c r="H744">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="745" spans="1:8">
@@ -19762,7 +19762,7 @@
         <v>-46295.58079598769</v>
       </c>
       <c r="H745">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="746" spans="1:8">
@@ -19788,7 +19788,7 @@
         <v>-46293.46339598769</v>
       </c>
       <c r="H746">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="747" spans="1:8">
@@ -19814,7 +19814,7 @@
         <v>-46293.46339598769</v>
       </c>
       <c r="H747">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="748" spans="1:8">
@@ -19866,7 +19866,7 @@
         <v>-46254.01219598769</v>
       </c>
       <c r="H749">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="750" spans="1:8">
@@ -19892,7 +19892,7 @@
         <v>-46254.01219598769</v>
       </c>
       <c r="H750">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="751" spans="1:8">
@@ -20022,7 +20022,7 @@
         <v>-46256.18061016091</v>
       </c>
       <c r="H755">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="756" spans="1:8">
@@ -20048,7 +20048,7 @@
         <v>-46256.18061016091</v>
       </c>
       <c r="H756">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="757" spans="1:8">
@@ -20074,7 +20074,7 @@
         <v>-46248.23351762674</v>
       </c>
       <c r="H757">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="758" spans="1:8">
@@ -20100,7 +20100,7 @@
         <v>-46253.19591762673</v>
       </c>
       <c r="H758">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="759" spans="1:8">
@@ -20126,7 +20126,7 @@
         <v>-46318.63891762673</v>
       </c>
       <c r="H759">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="760" spans="1:8">
@@ -20152,7 +20152,7 @@
         <v>-46318.63891762673</v>
       </c>
       <c r="H760">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="761" spans="1:8">
@@ -20178,7 +20178,7 @@
         <v>-46467.99231762673</v>
       </c>
       <c r="H761">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="762" spans="1:8">
@@ -20204,7 +20204,7 @@
         <v>-46467.99231762673</v>
       </c>
       <c r="H762">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="763" spans="1:8">
@@ -20230,7 +20230,7 @@
         <v>-46380.49731762673</v>
       </c>
       <c r="H763">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="764" spans="1:8">
@@ -20256,7 +20256,7 @@
         <v>-46380.49731762673</v>
       </c>
       <c r="H764">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="765" spans="1:8">
@@ -20282,7 +20282,7 @@
         <v>-46367.99501762673</v>
       </c>
       <c r="H765">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="766" spans="1:8">
@@ -20308,7 +20308,7 @@
         <v>-46346.63701762673</v>
       </c>
       <c r="H766">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="767" spans="1:8">
@@ -20334,7 +20334,7 @@
         <v>-46347.60361762673</v>
       </c>
       <c r="H767">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="768" spans="1:8">
@@ -20386,7 +20386,7 @@
         <v>-46333.47383995989</v>
       </c>
       <c r="H769">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="770" spans="1:8">
@@ -20438,7 +20438,7 @@
         <v>-46331.0944187414</v>
       </c>
       <c r="H771">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="772" spans="1:8">
@@ -20464,7 +20464,7 @@
         <v>-46330.8981187414</v>
       </c>
       <c r="H772">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="773" spans="1:8">
@@ -20880,7 +20880,7 @@
         <v>-46263.47681874139</v>
       </c>
       <c r="H788">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="789" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-22 ETH ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-22 ETH ohlcv.xlsx
@@ -7282,7 +7282,7 @@
         <v>402.2229603076125</v>
       </c>
       <c r="H265">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>402.2229603076125</v>
       </c>
       <c r="H266">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>402.2229603076125</v>
       </c>
       <c r="H267">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>665.1845603076125</v>
       </c>
       <c r="H268">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>692.4955603076125</v>
       </c>
       <c r="H269">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>692.4955603076125</v>
       </c>
       <c r="H270">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>692.4955603076125</v>
       </c>
       <c r="H271">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>735.7689603076126</v>
       </c>
       <c r="H272">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>752.8120603076126</v>
       </c>
       <c r="H273">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>811.9845603076126</v>
       </c>
       <c r="H274">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>561.1315857100738</v>
       </c>
       <c r="H284">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>395.6860274159869</v>
       </c>
       <c r="H291">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>439.3187274159869</v>
       </c>
       <c r="H292">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>438.270627415987</v>
       </c>
       <c r="H293">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>438.5936274159869</v>
       </c>
       <c r="H294">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>449.9786274159869</v>
       </c>
       <c r="H295">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>364.4226120638443</v>
       </c>
       <c r="H303">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>131.9562789490338</v>
       </c>
       <c r="H422">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>131.9562789490338</v>
       </c>
       <c r="H423">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>135.6533789490338</v>
       </c>
       <c r="H424">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>135.2089789490338</v>
       </c>
       <c r="H427">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>363.5046270959605</v>
       </c>
       <c r="H456">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>363.5046270959605</v>
       </c>
       <c r="H457">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>363.5046270959605</v>
       </c>
       <c r="H458">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>363.5046270959605</v>
       </c>
       <c r="H459">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>406.3888270959605</v>
       </c>
       <c r="H460">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>406.3888270959605</v>
       </c>
       <c r="H461">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>406.3888270959605</v>
       </c>
       <c r="H462">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>415.7855270959605</v>
       </c>
       <c r="H463">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>415.7855270959605</v>
       </c>
       <c r="H464">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>415.0524270959605</v>
       </c>
       <c r="H465">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>65.42222709596052</v>
       </c>
       <c r="H466">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>67.43342709596052</v>
       </c>
       <c r="H467">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>56.43592709596052</v>
       </c>
       <c r="H468">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>44.68232709596052</v>
       </c>
       <c r="H469">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>44.68232709596052</v>
       </c>
       <c r="H470">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>44.68232709596052</v>
       </c>
       <c r="H471">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -14224,7 +14224,7 @@
         <v>-46827.77253150597</v>
       </c>
       <c r="H532">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -14250,7 +14250,7 @@
         <v>-46827.77253150597</v>
       </c>
       <c r="H533">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -14328,7 +14328,7 @@
         <v>-46840.93223150597</v>
       </c>
       <c r="H536">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -14354,7 +14354,7 @@
         <v>-46819.50793150597</v>
       </c>
       <c r="H537">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -14380,7 +14380,7 @@
         <v>-46819.50793150597</v>
       </c>
       <c r="H538">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -14406,7 +14406,7 @@
         <v>-46804.17943150597</v>
       </c>
       <c r="H539">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -14432,7 +14432,7 @@
         <v>-46804.17943150597</v>
       </c>
       <c r="H540">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -14458,7 +14458,7 @@
         <v>-46807.86700393783</v>
       </c>
       <c r="H541">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -14484,7 +14484,7 @@
         <v>-46807.52120393783</v>
       </c>
       <c r="H542">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -14510,7 +14510,7 @@
         <v>-46809.33760393783</v>
       </c>
       <c r="H543">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -16434,7 +16434,7 @@
         <v>-46535.91370135124</v>
       </c>
       <c r="H617">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="618" spans="1:8">
@@ -16460,7 +16460,7 @@
         <v>-46540.91370135124</v>
       </c>
       <c r="H618">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="619" spans="1:8">
@@ -16486,7 +16486,7 @@
         <v>-46543.08670135124</v>
       </c>
       <c r="H619">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="620" spans="1:8">
@@ -16512,7 +16512,7 @@
         <v>-46543.08670135124</v>
       </c>
       <c r="H620">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="621" spans="1:8">
@@ -16538,7 +16538,7 @@
         <v>-46530.14280135124</v>
       </c>
       <c r="H621">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="622" spans="1:8">
@@ -16616,7 +16616,7 @@
         <v>-46530.94340135124</v>
       </c>
       <c r="H624">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="625" spans="1:8">
@@ -16642,7 +16642,7 @@
         <v>-46518.37370135124</v>
       </c>
       <c r="H625">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="626" spans="1:8">
@@ -16668,7 +16668,7 @@
         <v>-46379.48730135124</v>
       </c>
       <c r="H626">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="627" spans="1:8">
@@ -16694,7 +16694,7 @@
         <v>-46379.48730135124</v>
       </c>
       <c r="H627">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="628" spans="1:8">
@@ -16772,7 +16772,7 @@
         <v>-46333.03137698149</v>
       </c>
       <c r="H630">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="631" spans="1:8">
@@ -16850,7 +16850,7 @@
         <v>-46430.68477698148</v>
       </c>
       <c r="H633">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="634" spans="1:8">
@@ -16876,7 +16876,7 @@
         <v>-46430.68477698148</v>
       </c>
       <c r="H634">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="635" spans="1:8">
@@ -16928,7 +16928,7 @@
         <v>-46433.22737698149</v>
       </c>
       <c r="H636">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="637" spans="1:8">
@@ -17110,7 +17110,7 @@
         <v>-46444.9985278183</v>
       </c>
       <c r="H643">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="644" spans="1:8">
@@ -17136,7 +17136,7 @@
         <v>-46501.3808278183</v>
       </c>
       <c r="H644">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="645" spans="1:8">
@@ -17162,7 +17162,7 @@
         <v>-46426.1454278183</v>
       </c>
       <c r="H645">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="646" spans="1:8">
@@ -17188,7 +17188,7 @@
         <v>-46456.1845278183</v>
       </c>
       <c r="H646">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="647" spans="1:8">
@@ -17214,7 +17214,7 @@
         <v>-46353.6869278183</v>
       </c>
       <c r="H647">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="648" spans="1:8">
@@ -17240,7 +17240,7 @@
         <v>-46372.6889278183</v>
       </c>
       <c r="H648">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="649" spans="1:8">
@@ -17266,7 +17266,7 @@
         <v>-46371.2372278183</v>
       </c>
       <c r="H649">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="650" spans="1:8">
@@ -17318,7 +17318,7 @@
         <v>-46379.2245278183</v>
       </c>
       <c r="H651">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="652" spans="1:8">
@@ -17474,7 +17474,7 @@
         <v>-46383.8198278183</v>
       </c>
       <c r="H657">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="658" spans="1:8">
@@ -17526,7 +17526,7 @@
         <v>-46311.9805278183</v>
       </c>
       <c r="H659">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="660" spans="1:8">
@@ -17552,7 +17552,7 @@
         <v>-46320.70452676844</v>
       </c>
       <c r="H660">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="661" spans="1:8">
@@ -17578,7 +17578,7 @@
         <v>-46315.51452676843</v>
       </c>
       <c r="H661">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="662" spans="1:8">
@@ -17708,7 +17708,7 @@
         <v>-46314.70672676844</v>
       </c>
       <c r="H666">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="667" spans="1:8">
@@ -17734,7 +17734,7 @@
         <v>-46305.20576727211</v>
       </c>
       <c r="H667">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="668" spans="1:8">
@@ -17760,7 +17760,7 @@
         <v>-46293.91920932769</v>
       </c>
       <c r="H668">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="669" spans="1:8">
@@ -17812,7 +17812,7 @@
         <v>-46281.2622093277</v>
       </c>
       <c r="H670">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="671" spans="1:8">
@@ -17838,7 +17838,7 @@
         <v>-46281.2572093277</v>
       </c>
       <c r="H671">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="672" spans="1:8">
@@ -17916,7 +17916,7 @@
         <v>-46448.2503093277</v>
       </c>
       <c r="H674">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="675" spans="1:8">
@@ -17942,7 +17942,7 @@
         <v>-46448.2503093277</v>
       </c>
       <c r="H675">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="676" spans="1:8">
@@ -17994,7 +17994,7 @@
         <v>-46465.1840093277</v>
       </c>
       <c r="H677">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="678" spans="1:8">
@@ -18020,7 +18020,7 @@
         <v>-46461.1115093277</v>
       </c>
       <c r="H678">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="679" spans="1:8">
@@ -18046,7 +18046,7 @@
         <v>-46432.01570932769</v>
       </c>
       <c r="H679">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="680" spans="1:8">
@@ -18644,7 +18644,7 @@
         <v>-46252.48410723346</v>
       </c>
       <c r="H702">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="703" spans="1:8">
@@ -18670,7 +18670,7 @@
         <v>-46252.48410723346</v>
       </c>
       <c r="H703">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="704" spans="1:8">
@@ -18774,7 +18774,7 @@
         <v>-46245.11930723346</v>
       </c>
       <c r="H707">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="708" spans="1:8">
@@ -18826,7 +18826,7 @@
         <v>-46329.97340723345</v>
       </c>
       <c r="H709">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="710" spans="1:8">
@@ -18852,7 +18852,7 @@
         <v>-46344.88450723345</v>
       </c>
       <c r="H710">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="711" spans="1:8">
@@ -18878,7 +18878,7 @@
         <v>-46344.88450723345</v>
       </c>
       <c r="H711">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="712" spans="1:8">
@@ -18904,7 +18904,7 @@
         <v>-46342.26912705516</v>
       </c>
       <c r="H712">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="713" spans="1:8">
@@ -18982,7 +18982,7 @@
         <v>-46346.47242705516</v>
       </c>
       <c r="H715">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="716" spans="1:8">
@@ -19008,7 +19008,7 @@
         <v>-46346.47242705516</v>
       </c>
       <c r="H716">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="717" spans="1:8">
@@ -19034,7 +19034,7 @@
         <v>-46327.34072705516</v>
       </c>
       <c r="H717">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="718" spans="1:8">
@@ -19060,7 +19060,7 @@
         <v>-46326.53802705516</v>
       </c>
       <c r="H718">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="719" spans="1:8">
@@ -19086,7 +19086,7 @@
         <v>-46326.87522705516</v>
       </c>
       <c r="H719">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="720" spans="1:8">
@@ -19112,7 +19112,7 @@
         <v>-46345.01982705516</v>
       </c>
       <c r="H720">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="721" spans="1:8">
@@ -19138,7 +19138,7 @@
         <v>-46345.01982705516</v>
       </c>
       <c r="H721">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="722" spans="1:8">
@@ -19164,7 +19164,7 @@
         <v>-46345.01982705516</v>
       </c>
       <c r="H722">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="723" spans="1:8">
@@ -19190,7 +19190,7 @@
         <v>-46345.01982705516</v>
       </c>
       <c r="H723">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="724" spans="1:8">
@@ -19216,7 +19216,7 @@
         <v>-46345.01982705516</v>
       </c>
       <c r="H724">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="725" spans="1:8">
@@ -19294,7 +19294,7 @@
         <v>-46345.01982705516</v>
       </c>
       <c r="H727">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="728" spans="1:8">
@@ -19320,7 +19320,7 @@
         <v>-46336.56152705516</v>
       </c>
       <c r="H728">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="729" spans="1:8">
@@ -19346,7 +19346,7 @@
         <v>-46350.58322705516</v>
       </c>
       <c r="H729">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="730" spans="1:8">
@@ -19372,7 +19372,7 @@
         <v>-46171.70219598769</v>
       </c>
       <c r="H730">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="731" spans="1:8">
@@ -19398,7 +19398,7 @@
         <v>-46185.24309598769</v>
       </c>
       <c r="H731">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="732" spans="1:8">
@@ -19424,7 +19424,7 @@
         <v>-46185.24309598769</v>
       </c>
       <c r="H732">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="733" spans="1:8">
@@ -19450,7 +19450,7 @@
         <v>-46201.21959598768</v>
       </c>
       <c r="H733">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="734" spans="1:8">
@@ -19476,7 +19476,7 @@
         <v>-46225.03569598768</v>
       </c>
       <c r="H734">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="735" spans="1:8">
@@ -19502,7 +19502,7 @@
         <v>-46143.46079598768</v>
       </c>
       <c r="H735">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="736" spans="1:8">
@@ -19528,7 +19528,7 @@
         <v>-46202.27019598768</v>
       </c>
       <c r="H736">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="737" spans="1:8">
@@ -19554,7 +19554,7 @@
         <v>-46202.27019598768</v>
       </c>
       <c r="H737">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="738" spans="1:8">
@@ -19580,7 +19580,7 @@
         <v>-46202.27019598768</v>
       </c>
       <c r="H738">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="739" spans="1:8">
@@ -19606,7 +19606,7 @@
         <v>-46181.48449598768</v>
       </c>
       <c r="H739">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="740" spans="1:8">
@@ -19632,7 +19632,7 @@
         <v>-46222.29859598768</v>
       </c>
       <c r="H740">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="741" spans="1:8">
@@ -19658,7 +19658,7 @@
         <v>-46222.29859598768</v>
       </c>
       <c r="H741">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="742" spans="1:8">
@@ -19684,7 +19684,7 @@
         <v>-46223.61219598768</v>
       </c>
       <c r="H742">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="743" spans="1:8">
@@ -19710,7 +19710,7 @@
         <v>-46220.52479598769</v>
       </c>
       <c r="H743">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="744" spans="1:8">
@@ -19736,7 +19736,7 @@
         <v>-46302.45409598769</v>
       </c>
       <c r="H744">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="745" spans="1:8">
@@ -19762,7 +19762,7 @@
         <v>-46295.58079598769</v>
       </c>
       <c r="H745">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="746" spans="1:8">
@@ -19788,7 +19788,7 @@
         <v>-46293.46339598769</v>
       </c>
       <c r="H746">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="747" spans="1:8">
@@ -19814,7 +19814,7 @@
         <v>-46293.46339598769</v>
       </c>
       <c r="H747">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="748" spans="1:8">
@@ -19866,7 +19866,7 @@
         <v>-46254.01219598769</v>
       </c>
       <c r="H749">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="750" spans="1:8">
@@ -19892,7 +19892,7 @@
         <v>-46254.01219598769</v>
       </c>
       <c r="H750">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="751" spans="1:8">
@@ -19944,7 +19944,7 @@
         <v>-46245.76661016091</v>
       </c>
       <c r="H752">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="753" spans="1:8">
@@ -19970,7 +19970,7 @@
         <v>-46247.76661016091</v>
       </c>
       <c r="H753">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="754" spans="1:8">
@@ -19996,7 +19996,7 @@
         <v>-46252.18061016091</v>
       </c>
       <c r="H754">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="755" spans="1:8">
@@ -20022,7 +20022,7 @@
         <v>-46256.18061016091</v>
       </c>
       <c r="H755">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="756" spans="1:8">
@@ -20048,7 +20048,7 @@
         <v>-46256.18061016091</v>
       </c>
       <c r="H756">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="757" spans="1:8">
@@ -20074,7 +20074,7 @@
         <v>-46248.23351762674</v>
       </c>
       <c r="H757">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="758" spans="1:8">
@@ -20100,7 +20100,7 @@
         <v>-46253.19591762673</v>
       </c>
       <c r="H758">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="759" spans="1:8">
@@ -20126,7 +20126,7 @@
         <v>-46318.63891762673</v>
       </c>
       <c r="H759">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="760" spans="1:8">
@@ -20152,7 +20152,7 @@
         <v>-46318.63891762673</v>
       </c>
       <c r="H760">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="761" spans="1:8">
@@ -20178,7 +20178,7 @@
         <v>-46467.99231762673</v>
       </c>
       <c r="H761">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="762" spans="1:8">
@@ -20204,7 +20204,7 @@
         <v>-46467.99231762673</v>
       </c>
       <c r="H762">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="763" spans="1:8">
@@ -20230,7 +20230,7 @@
         <v>-46380.49731762673</v>
       </c>
       <c r="H763">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="764" spans="1:8">
@@ -20256,7 +20256,7 @@
         <v>-46380.49731762673</v>
       </c>
       <c r="H764">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="765" spans="1:8">
@@ -20282,7 +20282,7 @@
         <v>-46367.99501762673</v>
       </c>
       <c r="H765">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="766" spans="1:8">
@@ -20308,7 +20308,7 @@
         <v>-46346.63701762673</v>
       </c>
       <c r="H766">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="767" spans="1:8">
@@ -20334,7 +20334,7 @@
         <v>-46347.60361762673</v>
       </c>
       <c r="H767">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="768" spans="1:8">
@@ -20386,7 +20386,7 @@
         <v>-46333.47383995989</v>
       </c>
       <c r="H769">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="770" spans="1:8">
@@ -20412,7 +20412,7 @@
         <v>-46324.0944187414</v>
       </c>
       <c r="H770">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="771" spans="1:8">
@@ -20438,7 +20438,7 @@
         <v>-46331.0944187414</v>
       </c>
       <c r="H771">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="772" spans="1:8">
@@ -20464,7 +20464,7 @@
         <v>-46330.8981187414</v>
       </c>
       <c r="H772">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="773" spans="1:8">
@@ -20490,7 +20490,7 @@
         <v>-46250.3588187414</v>
       </c>
       <c r="H773">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="774" spans="1:8">
@@ -20516,7 +20516,7 @@
         <v>-46250.3588187414</v>
       </c>
       <c r="H774">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="775" spans="1:8">
@@ -20542,7 +20542,7 @@
         <v>-46265.0136187414</v>
       </c>
       <c r="H775">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="776" spans="1:8">
@@ -20568,7 +20568,7 @@
         <v>-46265.0136187414</v>
       </c>
       <c r="H776">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="777" spans="1:8">
@@ -20594,7 +20594,7 @@
         <v>-46265.0136187414</v>
       </c>
       <c r="H777">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="778" spans="1:8">
@@ -20620,7 +20620,7 @@
         <v>-46263.9510187414</v>
       </c>
       <c r="H778">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="779" spans="1:8">
@@ -20646,7 +20646,7 @@
         <v>-46263.9510187414</v>
       </c>
       <c r="H779">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="780" spans="1:8">
@@ -20672,7 +20672,7 @@
         <v>-46263.9510187414</v>
       </c>
       <c r="H780">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="781" spans="1:8">
@@ -20698,7 +20698,7 @@
         <v>-46258.9510187414</v>
       </c>
       <c r="H781">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="782" spans="1:8">
@@ -20724,7 +20724,7 @@
         <v>-46258.9510187414</v>
       </c>
       <c r="H782">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="783" spans="1:8">
@@ -20750,7 +20750,7 @@
         <v>-46320.5818187414</v>
       </c>
       <c r="H783">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="784" spans="1:8">
@@ -20776,7 +20776,7 @@
         <v>-46320.5818187414</v>
       </c>
       <c r="H784">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="785" spans="1:8">
@@ -20802,7 +20802,7 @@
         <v>-46320.5818187414</v>
       </c>
       <c r="H785">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="786" spans="1:8">
@@ -20828,7 +20828,7 @@
         <v>-46266.9531187414</v>
       </c>
       <c r="H786">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="787" spans="1:8">
@@ -20854,7 +20854,7 @@
         <v>-46267.24351874139</v>
       </c>
       <c r="H787">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="788" spans="1:8">
@@ -20880,7 +20880,7 @@
         <v>-46263.47681874139</v>
       </c>
       <c r="H788">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="789" spans="1:8">
@@ -20906,7 +20906,7 @@
         <v>-46263.47681874139</v>
       </c>
       <c r="H789">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="790" spans="1:8">
@@ -20932,7 +20932,7 @@
         <v>-46269.1746187414</v>
       </c>
       <c r="H790">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="791" spans="1:8">
@@ -20958,7 +20958,7 @@
         <v>-46242.09061874139</v>
       </c>
       <c r="H791">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="792" spans="1:8">
@@ -20984,7 +20984,7 @@
         <v>-46241.88011874139</v>
       </c>
       <c r="H792">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="793" spans="1:8">
@@ -21010,7 +21010,7 @@
         <v>-46241.88011874139</v>
       </c>
       <c r="H793">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="794" spans="1:8">
@@ -21036,7 +21036,7 @@
         <v>-46241.88011874139</v>
       </c>
       <c r="H794">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="795" spans="1:8">
@@ -21062,7 +21062,7 @@
         <v>-46179.54966423405</v>
       </c>
       <c r="H795">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="796" spans="1:8">
@@ -21088,7 +21088,7 @@
         <v>-46179.54966423405</v>
       </c>
       <c r="H796">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="797" spans="1:8">
@@ -21114,7 +21114,7 @@
         <v>-46179.54966423405</v>
       </c>
       <c r="H797">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="798" spans="1:8">
@@ -21140,7 +21140,7 @@
         <v>-46173.848096571</v>
       </c>
       <c r="H798">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="799" spans="1:8">
@@ -21166,7 +21166,7 @@
         <v>-46215.049196571</v>
       </c>
       <c r="H799">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="800" spans="1:8">
@@ -21192,7 +21192,7 @@
         <v>-46215.049196571</v>
       </c>
       <c r="H800">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="801" spans="1:8">
@@ -21218,7 +21218,7 @@
         <v>-46215.049196571</v>
       </c>
       <c r="H801">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="802" spans="1:8">
@@ -21244,7 +21244,7 @@
         <v>-46215.049196571</v>
       </c>
       <c r="H802">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="803" spans="1:8">
@@ -21270,7 +21270,7 @@
         <v>-46214.912196571</v>
       </c>
       <c r="H803">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="804" spans="1:8">
@@ -21296,7 +21296,7 @@
         <v>-46279.081796571</v>
       </c>
       <c r="H804">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="805" spans="1:8">
@@ -21322,7 +21322,7 @@
         <v>-46277.00311175425</v>
       </c>
       <c r="H805">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="806" spans="1:8">
@@ -21348,7 +21348,7 @@
         <v>-46296.45250347766</v>
       </c>
       <c r="H806">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="807" spans="1:8">
@@ -21374,7 +21374,7 @@
         <v>-46297.44990347766</v>
       </c>
       <c r="H807">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="808" spans="1:8">
@@ -21400,7 +21400,7 @@
         <v>-46313.49850347766</v>
       </c>
       <c r="H808">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="809" spans="1:8">
@@ -21426,7 +21426,7 @@
         <v>-46313.49850347766</v>
       </c>
       <c r="H809">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="810" spans="1:8">
@@ -21452,7 +21452,7 @@
         <v>-46313.32910347766</v>
       </c>
       <c r="H810">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="811" spans="1:8">
@@ -21478,7 +21478,7 @@
         <v>-46305.32910347766</v>
       </c>
       <c r="H811">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="812" spans="1:8">
@@ -21504,7 +21504,7 @@
         <v>-46305.32910347766</v>
       </c>
       <c r="H812">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="813" spans="1:8">
@@ -21530,7 +21530,7 @@
         <v>-46154.54255264084</v>
       </c>
       <c r="H813">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="814" spans="1:8">
@@ -21556,7 +21556,7 @@
         <v>-46145.27760603687</v>
       </c>
       <c r="H814">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="815" spans="1:8">
@@ -21608,7 +21608,7 @@
         <v>-46049.46999108653</v>
       </c>
       <c r="H816">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="817" spans="1:8">
@@ -22258,7 +22258,7 @@
         <v>-46061.65572991488</v>
       </c>
       <c r="H841">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="842" spans="1:8">
@@ -22284,7 +22284,7 @@
         <v>-46049.2944679401</v>
       </c>
       <c r="H842">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="843" spans="1:8">
@@ -22336,7 +22336,7 @@
         <v>-46255.3598679401</v>
       </c>
       <c r="H844">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="845" spans="1:8">
@@ -22362,7 +22362,7 @@
         <v>-46250.3598679401</v>
       </c>
       <c r="H845">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="846" spans="1:8">
@@ -22388,7 +22388,7 @@
         <v>-46182.2863679401</v>
       </c>
       <c r="H846">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="847" spans="1:8">
@@ -22414,7 +22414,7 @@
         <v>-46229.3627679401</v>
       </c>
       <c r="H847">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="848" spans="1:8">
@@ -22440,7 +22440,7 @@
         <v>-46201.29720607035</v>
       </c>
       <c r="H848">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="849" spans="1:8">
@@ -22466,7 +22466,7 @@
         <v>-46200.53960607035</v>
       </c>
       <c r="H849">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="850" spans="1:8">
@@ -27510,7 +27510,7 @@
         <v>-45342.73778858264</v>
       </c>
       <c r="H1043">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1044" spans="1:8">
@@ -27770,7 +27770,7 @@
         <v>-45298.65878858263</v>
       </c>
       <c r="H1053">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1054" spans="1:8">
